--- a/Instances/15_NonStationary_b4_fe25_en_rk50_ll0_l40_HFalse_c2.xlsx
+++ b/Instances/15_NonStationary_b4_fe25_en_rk50_ll0_l40_HFalse_c2.xlsx
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -55227,7 +55227,7 @@
         <v>0.003696000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>0.367136</v>
+        <v>1.207496</v>
       </c>
       <c r="F2" t="n">
         <v>0.014784</v>
@@ -55261,7 +55261,7 @@
         <v>0.003688</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4440000000000001</v>
+        <v>1.07448</v>
       </c>
       <c r="F3" t="n">
         <v>0.014752</v>
@@ -55295,7 +55295,7 @@
         <v>0.003836</v>
       </c>
       <c r="E4" t="n">
-        <v>0.36936</v>
+        <v>0.84284</v>
       </c>
       <c r="F4" t="n">
         <v>0.015344</v>
@@ -55329,7 +55329,7 @@
         <v>0.004136</v>
       </c>
       <c r="E5" t="n">
-        <v>0.59148</v>
+        <v>1.48188</v>
       </c>
       <c r="F5" t="n">
         <v>0.016544</v>
@@ -55363,7 +55363,7 @@
         <v>0.003508</v>
       </c>
       <c r="E6" t="n">
-        <v>0.32384</v>
+        <v>1.36832</v>
       </c>
       <c r="F6" t="n">
         <v>0.014032</v>
@@ -55397,7 +55397,7 @@
         <v>0.004392</v>
       </c>
       <c r="E7" t="n">
-        <v>0.058968</v>
+        <v>0.523224</v>
       </c>
       <c r="F7" t="n">
         <v>0.017568</v>
@@ -55431,7 +55431,7 @@
         <v>0.00352</v>
       </c>
       <c r="E8" t="n">
-        <v>0.757888</v>
+        <v>0.792608</v>
       </c>
       <c r="F8" t="n">
         <v>0.01408</v>
@@ -55465,7 +55465,7 @@
         <v>0.004232000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>0.436392</v>
+        <v>0.5769840000000001</v>
       </c>
       <c r="F9" t="n">
         <v>0.016928</v>
@@ -55499,7 +55499,7 @@
         <v>0.002084</v>
       </c>
       <c r="E10" t="n">
-        <v>0.409664</v>
+        <v>2.531336</v>
       </c>
       <c r="F10" t="n">
         <v>0.008336</v>
@@ -55533,7 +55533,7 @@
         <v>0.002980000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>0.593472</v>
+        <v>0.904992</v>
       </c>
       <c r="F11" t="n">
         <v>0.01192</v>
@@ -55567,7 +55567,7 @@
         <v>0.004364000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>0.523752</v>
+        <v>0.7361439999999999</v>
       </c>
       <c r="F12" t="n">
         <v>0.017456</v>
@@ -55601,7 +55601,7 @@
         <v>0.004548000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8112</v>
+        <v>1.07136</v>
       </c>
       <c r="F13" t="n">
         <v>0.018192</v>
@@ -55635,7 +55635,7 @@
         <v>0.004884</v>
       </c>
       <c r="E14" t="n">
-        <v>0.676224</v>
+        <v>1.092096</v>
       </c>
       <c r="F14" t="n">
         <v>0.019536</v>
@@ -55669,7 +55669,7 @@
         <v>0.004776000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7416</v>
+        <v>1.4004</v>
       </c>
       <c r="F15" t="n">
         <v>0.019104</v>
@@ -55703,7 +55703,7 @@
         <v>0.002808</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4006560000000001</v>
+        <v>0.665448</v>
       </c>
       <c r="F16" t="n">
         <v>0.011232</v>
@@ -55737,7 +55737,7 @@
         <v>0.003316</v>
       </c>
       <c r="E17" t="n">
-        <v>0.106096</v>
+        <v>0.244112</v>
       </c>
       <c r="F17" t="n">
         <v>0.013264</v>
@@ -55771,7 +55771,7 @@
         <v>0.003664</v>
       </c>
       <c r="E18" t="n">
-        <v>0.210552</v>
+        <v>0.186496</v>
       </c>
       <c r="F18" t="n">
         <v>0.014656</v>
@@ -55805,7 +55805,7 @@
         <v>0.003704</v>
       </c>
       <c r="E19" t="n">
-        <v>0.18176</v>
+        <v>0.4902400000000001</v>
       </c>
       <c r="F19" t="n">
         <v>0.014816</v>
@@ -55839,7 +55839,7 @@
         <v>0.003812</v>
       </c>
       <c r="E20" t="n">
-        <v>0.32536</v>
+        <v>0.23156</v>
       </c>
       <c r="F20" t="n">
         <v>0.015248</v>
@@ -55873,7 +55873,7 @@
         <v>0.003476</v>
       </c>
       <c r="E21" t="n">
-        <v>0.306288</v>
+        <v>0.699408</v>
       </c>
       <c r="F21" t="n">
         <v>0.013904</v>
@@ -55907,7 +55907,7 @@
         <v>0.004316</v>
       </c>
       <c r="E22" t="n">
-        <v>0.08070400000000001</v>
+        <v>0.312</v>
       </c>
       <c r="F22" t="n">
         <v>0.017264</v>
@@ -55941,7 +55941,7 @@
         <v>0.004752000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5715359999999999</v>
+        <v>0.455112</v>
       </c>
       <c r="F23" t="n">
         <v>0.019008</v>
@@ -55975,7 +55975,7 @@
         <v>0.002496</v>
       </c>
       <c r="E24" t="n">
-        <v>0.294816</v>
+        <v>0.06571199999999999</v>
       </c>
       <c r="F24" t="n">
         <v>0.009984000000000002</v>
@@ -56009,7 +56009,7 @@
         <v>0.002568</v>
       </c>
       <c r="E25" t="n">
-        <v>0.152864</v>
+        <v>0.2562240000000001</v>
       </c>
       <c r="F25" t="n">
         <v>0.010272</v>
@@ -56043,7 +56043,7 @@
         <v>0.003852</v>
       </c>
       <c r="E26" t="n">
-        <v>0.327672</v>
+        <v>0.71336</v>
       </c>
       <c r="F26" t="n">
         <v>0.015408</v>
@@ -56077,7 +56077,7 @@
         <v>0.004268000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>0.274512</v>
+        <v>0.472656</v>
       </c>
       <c r="F27" t="n">
         <v>0.017072</v>
@@ -56111,7 +56111,7 @@
         <v>0.005444000000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>0.16416</v>
+        <v>0.43136</v>
       </c>
       <c r="F28" t="n">
         <v>0.021776</v>
@@ -56145,7 +56145,7 @@
         <v>0.005288</v>
       </c>
       <c r="E29" t="n">
-        <v>0.3116</v>
+        <v>0.546896</v>
       </c>
       <c r="F29" t="n">
         <v>0.021152</v>
@@ -56173,13 +56173,13 @@
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>2129</v>
+        <v>1603</v>
       </c>
       <c r="D30" t="n">
         <v>0.0031</v>
       </c>
       <c r="E30" t="n">
-        <v>3.512896</v>
+        <v>9.161016000000002</v>
       </c>
       <c r="F30" t="n">
         <v>0.0124</v>
@@ -56207,13 +56207,13 @@
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>964</v>
+        <v>2954</v>
       </c>
       <c r="D31" t="n">
         <v>0.003244</v>
       </c>
       <c r="E31" t="n">
-        <v>3.81836</v>
+        <v>10.15924</v>
       </c>
       <c r="F31" t="n">
         <v>0.012976</v>
@@ -56241,13 +56241,13 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>2961</v>
+        <v>3082</v>
       </c>
       <c r="D32" t="n">
         <v>0.003456</v>
       </c>
       <c r="E32" t="n">
-        <v>7.011136</v>
+        <v>13.504128</v>
       </c>
       <c r="F32" t="n">
         <v>0.013824</v>
@@ -56275,13 +56275,13 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>2270</v>
+        <v>2985</v>
       </c>
       <c r="D33" t="n">
         <v>0.0035</v>
       </c>
       <c r="E33" t="n">
-        <v>5.951704</v>
+        <v>13.388232</v>
       </c>
       <c r="F33" t="n">
         <v>0.014</v>
@@ -56309,13 +56309,13 @@
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>2062</v>
+        <v>3040</v>
       </c>
       <c r="D34" t="n">
         <v>0.002868</v>
       </c>
       <c r="E34" t="n">
-        <v>2.889936</v>
+        <v>7.81776</v>
       </c>
       <c r="F34" t="n">
         <v>0.011472</v>
@@ -56343,13 +56343,13 @@
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>393</v>
       </c>
       <c r="D35" t="n">
         <v>0.003924</v>
       </c>
       <c r="E35" t="n">
-        <v>4.1328</v>
+        <v>4.57632</v>
       </c>
       <c r="F35" t="n">
         <v>0.015696</v>
@@ -56377,13 +56377,13 @@
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>5670</v>
+        <v>3739</v>
       </c>
       <c r="D36" t="n">
         <v>0.003024</v>
       </c>
       <c r="E36" t="n">
-        <v>6.49296</v>
+        <v>10.125</v>
       </c>
       <c r="F36" t="n">
         <v>0.012096</v>
@@ -56411,13 +56411,13 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>3569</v>
+        <v>2686</v>
       </c>
       <c r="D37" t="n">
         <v>0.003884</v>
       </c>
       <c r="E37" t="n">
-        <v>7.89632</v>
+        <v>12.6232</v>
       </c>
       <c r="F37" t="n">
         <v>0.015536</v>
@@ -56445,13 +56445,13 @@
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>2039</v>
+        <v>4405</v>
       </c>
       <c r="D38" t="n">
         <v>0.001392</v>
       </c>
       <c r="E38" t="n">
-        <v>1.571328</v>
+        <v>6.379056</v>
       </c>
       <c r="F38" t="n">
         <v>0.005568</v>
@@ -56479,13 +56479,13 @@
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>2349</v>
+        <v>3407</v>
       </c>
       <c r="D39" t="n">
         <v>0.002452000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>5.809920000000001</v>
+        <v>9.835520000000002</v>
       </c>
       <c r="F39" t="n">
         <v>0.009808000000000002</v>
@@ -56513,13 +56513,13 @@
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>2930</v>
+        <v>3151</v>
       </c>
       <c r="D40" t="n">
         <v>0.003808000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>5.142912</v>
+        <v>7.678048</v>
       </c>
       <c r="F40" t="n">
         <v>0.015232</v>
@@ -56547,13 +56547,13 @@
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>4166</v>
+        <v>1661</v>
       </c>
       <c r="D41" t="n">
         <v>0.004068</v>
       </c>
       <c r="E41" t="n">
-        <v>8.984928</v>
+        <v>10.7952</v>
       </c>
       <c r="F41" t="n">
         <v>0.016272</v>
@@ -56581,13 +56581,13 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>2441</v>
+        <v>2289</v>
       </c>
       <c r="D42" t="n">
         <v>0.004308</v>
       </c>
       <c r="E42" t="n">
-        <v>2.596288</v>
+        <v>5.318944</v>
       </c>
       <c r="F42" t="n">
         <v>0.017232</v>
@@ -56615,13 +56615,13 @@
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>2274</v>
+        <v>2079</v>
       </c>
       <c r="D43" t="n">
         <v>0.004176000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>3.760736</v>
+        <v>7.205904</v>
       </c>
       <c r="F43" t="n">
         <v>0.016704</v>
@@ -56649,13 +56649,13 @@
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>5396</v>
+        <v>6298</v>
       </c>
       <c r="D44" t="n">
         <v>0.002604</v>
       </c>
       <c r="E44" t="n">
-        <v>5.566048</v>
+        <v>8.890840000000001</v>
       </c>
       <c r="F44" t="n">
         <v>0.010416</v>
@@ -56683,13 +56683,13 @@
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>2947</v>
+        <v>3955</v>
       </c>
       <c r="D45" t="n">
         <v>0.003164</v>
       </c>
       <c r="E45" t="n">
-        <v>4.836448000000001</v>
+        <v>9.427032000000001</v>
       </c>
       <c r="F45" t="n">
         <v>0.012656</v>
@@ -56717,13 +56717,13 @@
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>9074</v>
+        <v>5498</v>
       </c>
       <c r="D46" t="n">
         <v>0.00354</v>
       </c>
       <c r="E46" t="n">
-        <v>16.298496</v>
+        <v>17.807616</v>
       </c>
       <c r="F46" t="n">
         <v>0.01416</v>
@@ -56751,13 +56751,13 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>4574</v>
+        <v>873</v>
       </c>
       <c r="D47" t="n">
         <v>0.003544</v>
       </c>
       <c r="E47" t="n">
-        <v>8.299200000000001</v>
+        <v>11.4366</v>
       </c>
       <c r="F47" t="n">
         <v>0.014176</v>
@@ -56785,13 +56785,13 @@
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>4216</v>
+        <v>1675</v>
       </c>
       <c r="D48" t="n">
         <v>0.003672</v>
       </c>
       <c r="E48" t="n">
-        <v>5.259072</v>
+        <v>9.28256</v>
       </c>
       <c r="F48" t="n">
         <v>0.014688</v>
@@ -56819,13 +56819,13 @@
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>4291</v>
+        <v>6356</v>
       </c>
       <c r="D49" t="n">
         <v>0.00326</v>
       </c>
       <c r="E49" t="n">
-        <v>4.062184</v>
+        <v>8.686184000000001</v>
       </c>
       <c r="F49" t="n">
         <v>0.01304</v>
@@ -56853,13 +56853,13 @@
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>3780</v>
+        <v>3989</v>
       </c>
       <c r="D50" t="n">
         <v>0.004212</v>
       </c>
       <c r="E50" t="n">
-        <v>7.042048000000001</v>
+        <v>17.58396</v>
       </c>
       <c r="F50" t="n">
         <v>0.016848</v>
@@ -56887,13 +56887,13 @@
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>6947</v>
+        <v>4586</v>
       </c>
       <c r="D51" t="n">
         <v>0.004556000000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>15.85224</v>
+        <v>24.10308</v>
       </c>
       <c r="F51" t="n">
         <v>0.018224</v>
@@ -56921,13 +56921,13 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>4449</v>
+        <v>1672</v>
       </c>
       <c r="D52" t="n">
         <v>0.002348</v>
       </c>
       <c r="E52" t="n">
-        <v>7.824960000000001</v>
+        <v>4.69664</v>
       </c>
       <c r="F52" t="n">
         <v>0.009392000000000001</v>
@@ -56955,13 +56955,13 @@
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>4076</v>
+        <v>2949</v>
       </c>
       <c r="D53" t="n">
         <v>0.002432</v>
       </c>
       <c r="E53" t="n">
-        <v>4.232784000000001</v>
+        <v>6.963752</v>
       </c>
       <c r="F53" t="n">
         <v>0.009728000000000001</v>
@@ -56989,13 +56989,13 @@
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>4199</v>
+        <v>1980</v>
       </c>
       <c r="D54" t="n">
         <v>0.003704</v>
       </c>
       <c r="E54" t="n">
-        <v>7.809616000000001</v>
+        <v>14.538608</v>
       </c>
       <c r="F54" t="n">
         <v>0.014816</v>
@@ -57023,13 +57023,13 @@
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>4018</v>
+        <v>4363</v>
       </c>
       <c r="D55" t="n">
         <v>0.004096000000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>7.644096</v>
+        <v>16.349872</v>
       </c>
       <c r="F55" t="n">
         <v>0.016384</v>
@@ -57057,13 +57057,13 @@
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>3454</v>
+        <v>3461</v>
       </c>
       <c r="D56" t="n">
         <v>0.005284000000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>6.09088</v>
+        <v>9.864448000000001</v>
       </c>
       <c r="F56" t="n">
         <v>0.021136</v>
@@ -57091,13 +57091,13 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>3270</v>
+        <v>2309</v>
       </c>
       <c r="D57" t="n">
         <v>0.005136</v>
       </c>
       <c r="E57" t="n">
-        <v>8.320752000000001</v>
+        <v>14.493384</v>
       </c>
       <c r="F57" t="n">
         <v>0.020544</v>
@@ -57131,7 +57131,7 @@
         <v>0.000216</v>
       </c>
       <c r="E58" t="n">
-        <v>20.341152</v>
+        <v>35.33544000000001</v>
       </c>
       <c r="F58" t="n">
         <v>0.0008640000000000001</v>
@@ -57165,7 +57165,7 @@
         <v>7.2e-05</v>
       </c>
       <c r="E59" t="n">
-        <v>0.301968</v>
+        <v>0.7954560000000001</v>
       </c>
       <c r="F59" t="n">
         <v>0.000288</v>
@@ -57199,7 +57199,7 @@
         <v>0.001136</v>
       </c>
       <c r="E60" t="n">
-        <v>11.968896</v>
+        <v>27.484384</v>
       </c>
       <c r="F60" t="n">
         <v>0.004544</v>
@@ -57233,7 +57233,7 @@
         <v>8.000000000000001e-05</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7964800000000001</v>
+        <v>1.62416</v>
       </c>
       <c r="F61" t="n">
         <v>0.00032</v>
@@ -57267,7 +57267,7 @@
         <v>0.001108</v>
       </c>
       <c r="E62" t="n">
-        <v>11.973048</v>
+        <v>20.493568</v>
       </c>
       <c r="F62" t="n">
         <v>0.004432</v>
@@ -57301,7 +57301,7 @@
         <v>8.000000000000001e-05</v>
       </c>
       <c r="E63" t="n">
-        <v>0.5753600000000001</v>
+        <v>0.9072000000000001</v>
       </c>
       <c r="F63" t="n">
         <v>0.00032</v>
@@ -57335,7 +57335,7 @@
         <v>6e-05</v>
       </c>
       <c r="E64" t="n">
-        <v>0.24468</v>
+        <v>0.61416</v>
       </c>
       <c r="F64" t="n">
         <v>0.00024</v>
@@ -57369,7 +57369,7 @@
         <v>0.001688</v>
       </c>
       <c r="E65" t="n">
-        <v>12.08608</v>
+        <v>15.914464</v>
       </c>
       <c r="F65" t="n">
         <v>0.006752</v>
@@ -57403,7 +57403,7 @@
         <v>8.800000000000001e-05</v>
       </c>
       <c r="E66" t="n">
-        <v>0.6300800000000001</v>
+        <v>0.8296640000000001</v>
       </c>
       <c r="F66" t="n">
         <v>0.000352</v>
@@ -57437,7 +57437,7 @@
         <v>6e-05</v>
       </c>
       <c r="E67" t="n">
-        <v>0.28152</v>
+        <v>0.5538</v>
       </c>
       <c r="F67" t="n">
         <v>0.00024</v>
@@ -57471,7 +57471,7 @@
         <v>0.002596</v>
       </c>
       <c r="E68" t="n">
-        <v>12.180432</v>
+        <v>23.96108</v>
       </c>
       <c r="F68" t="n">
         <v>0.010384</v>
@@ -57505,7 +57505,7 @@
         <v>0.00116</v>
       </c>
       <c r="E69" t="n">
-        <v>22.68032</v>
+        <v>31.842</v>
       </c>
       <c r="F69" t="n">
         <v>0.00464</v>
@@ -57539,7 +57539,7 @@
         <v>0.000104</v>
       </c>
       <c r="E70" t="n">
-        <v>0.8136960000000001</v>
+        <v>1.404832</v>
       </c>
       <c r="F70" t="n">
         <v>0.000416</v>
@@ -57573,7 +57573,7 @@
         <v>6.800000000000001e-05</v>
       </c>
       <c r="E71" t="n">
-        <v>1.264528</v>
+        <v>1.861568</v>
       </c>
       <c r="F71" t="n">
         <v>0.0002720000000000001</v>
@@ -57607,7 +57607,7 @@
         <v>0.00182</v>
       </c>
       <c r="E72" t="n">
-        <v>30.2848</v>
+        <v>57.40644</v>
       </c>
       <c r="F72" t="n">
         <v>0.00728</v>
@@ -57641,7 +57641,7 @@
         <v>6e-05</v>
       </c>
       <c r="E73" t="n">
-        <v>0.5863200000000001</v>
+        <v>1.08648</v>
       </c>
       <c r="F73" t="n">
         <v>0.00024</v>
@@ -57675,7 +57675,7 @@
         <v>5.2e-05</v>
       </c>
       <c r="E74" t="n">
-        <v>0.297336</v>
+        <v>0.284752</v>
       </c>
       <c r="F74" t="n">
         <v>0.000208</v>
@@ -57709,7 +57709,7 @@
         <v>0.000116</v>
       </c>
       <c r="E75" t="n">
-        <v>0.857008</v>
+        <v>1.701952</v>
       </c>
       <c r="F75" t="n">
         <v>0.000464</v>
@@ -57743,7 +57743,7 @@
         <v>0.001456</v>
       </c>
       <c r="E76" t="n">
-        <v>10.756928</v>
+        <v>21.362432</v>
       </c>
       <c r="F76" t="n">
         <v>0.005824</v>
@@ -57777,7 +57777,7 @@
         <v>0.002976</v>
       </c>
       <c r="E77" t="n">
-        <v>22.623552</v>
+        <v>38.289216</v>
       </c>
       <c r="F77" t="n">
         <v>0.011904</v>
@@ -57811,7 +57811,7 @@
         <v>0.000108</v>
       </c>
       <c r="E78" t="n">
-        <v>0.8210160000000001</v>
+        <v>1.389528</v>
       </c>
       <c r="F78" t="n">
         <v>0.000432</v>
@@ -58791,7 +58791,7 @@
         <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>1118</v>
+        <v>0</v>
       </c>
       <c r="D107" t="n">
         <v>0.003696000000000001</v>
@@ -58825,7 +58825,7 @@
         <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>1535</v>
+        <v>0</v>
       </c>
       <c r="D108" t="n">
         <v>0.003688</v>
@@ -58859,7 +58859,7 @@
         <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>1615</v>
+        <v>1466</v>
       </c>
       <c r="D109" t="n">
         <v>0.003836</v>
@@ -58893,7 +58893,7 @@
         <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>1133</v>
+        <v>1734</v>
       </c>
       <c r="D110" t="n">
         <v>0.004136</v>
@@ -58927,7 +58927,7 @@
         <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>2623</v>
       </c>
       <c r="D111" t="n">
         <v>0.003508</v>
@@ -58961,7 +58961,7 @@
         <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>315</v>
+        <v>769</v>
       </c>
       <c r="D112" t="n">
         <v>0.004392</v>
@@ -58995,7 +58995,7 @@
         <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>1255</v>
+        <v>7</v>
       </c>
       <c r="D113" t="n">
         <v>0.00352</v>
@@ -59029,7 +59029,7 @@
         <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>1632</v>
+        <v>353</v>
       </c>
       <c r="D114" t="n">
         <v>0.004232000000000001</v>
@@ -59063,7 +59063,7 @@
         <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>1229</v>
+        <v>1927</v>
       </c>
       <c r="D115" t="n">
         <v>0.002084</v>
@@ -59097,7 +59097,7 @@
         <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>1758</v>
+        <v>2007</v>
       </c>
       <c r="D116" t="n">
         <v>0.002980000000000001</v>
@@ -59131,7 +59131,7 @@
         <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>1148</v>
+        <v>706</v>
       </c>
       <c r="D117" t="n">
         <v>0.004364000000000001</v>
@@ -59165,7 +59165,7 @@
         <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>1803</v>
+        <v>821</v>
       </c>
       <c r="D118" t="n">
         <v>0.004548000000000001</v>
@@ -59199,7 +59199,7 @@
         <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>1138</v>
+        <v>653</v>
       </c>
       <c r="D119" t="n">
         <v>0.004884</v>
@@ -59233,7 +59233,7 @@
         <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>1330</v>
+        <v>2884</v>
       </c>
       <c r="D120" t="n">
         <v>0.004776000000000001</v>
@@ -59267,7 +59267,7 @@
         <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>2811</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
         <v>0.002808</v>
@@ -59301,7 +59301,7 @@
         <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>990</v>
+        <v>460</v>
       </c>
       <c r="D122" t="n">
         <v>0.003316</v>
@@ -59369,7 +59369,7 @@
         <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>718</v>
+        <v>637</v>
       </c>
       <c r="D124" t="n">
         <v>0.003704</v>
@@ -59403,7 +59403,7 @@
         <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>1573</v>
+        <v>1795</v>
       </c>
       <c r="D125" t="n">
         <v>0.003812</v>
@@ -59437,7 +59437,7 @@
         <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>1307</v>
+        <v>2907</v>
       </c>
       <c r="D126" t="n">
         <v>0.003476</v>
@@ -59471,7 +59471,7 @@
         <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>903</v>
+        <v>1302</v>
       </c>
       <c r="D127" t="n">
         <v>0.004316</v>
@@ -59505,7 +59505,7 @@
         <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>3169</v>
+        <v>27</v>
       </c>
       <c r="D128" t="n">
         <v>0.004752000000000001</v>
@@ -59539,7 +59539,7 @@
         <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>2437</v>
+        <v>186</v>
       </c>
       <c r="D129" t="n">
         <v>0.002496</v>
@@ -59573,7 +59573,7 @@
         <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>20</v>
+        <v>306</v>
       </c>
       <c r="D130" t="n">
         <v>0.002568</v>
@@ -59607,7 +59607,7 @@
         <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>3452</v>
+        <v>3736</v>
       </c>
       <c r="D131" t="n">
         <v>0.003852</v>
@@ -59641,7 +59641,7 @@
         <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>2603</v>
+        <v>1055</v>
       </c>
       <c r="D132" t="n">
         <v>0.004268000000000001</v>
@@ -59675,7 +59675,7 @@
         <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>2341</v>
+        <v>1433</v>
       </c>
       <c r="D133" t="n">
         <v>0.005444000000000001</v>
@@ -59709,7 +59709,7 @@
         <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>78</v>
+        <v>2654</v>
       </c>
       <c r="D134" t="n">
         <v>0.005288</v>
@@ -59744,7 +59744,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ED6"/>
+  <dimension ref="A1:ED10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60655,169 +60655,169 @@
         <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>167</v>
+        <v>1192</v>
       </c>
       <c r="CB2" t="n">
+        <v>1349</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>1374</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>394</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>1774</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>2224</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>1240</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>691</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>792</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>1151</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>988</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>1456</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>1768</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>1819</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>2862</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>395</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>867</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>1038</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>659</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>485</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>1978</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>1829</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>1400</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>878</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>666</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>432</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>7</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>176</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>1782</v>
+      </c>
+      <c r="DL2" t="n">
         <v>1255</v>
       </c>
-      <c r="CC2" t="n">
-        <v>1458</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>1094</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>775</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>1170</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>917</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>755</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>1944</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>1155</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>1129</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>363</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>3938</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>664</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>937</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>374</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>529</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>646</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>1997</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>800</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>801</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>1285</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>1118</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>1225</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>1615</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>626</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>315</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>1255</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>973</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>543</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>995</v>
-      </c>
       <c r="DM2" t="n">
-        <v>0</v>
+        <v>706</v>
       </c>
       <c r="DN2" t="n">
-        <v>1378</v>
+        <v>216</v>
       </c>
       <c r="DO2" t="n">
-        <v>495</v>
+        <v>124</v>
       </c>
       <c r="DP2" t="n">
-        <v>0</v>
+        <v>1334</v>
       </c>
       <c r="DQ2" t="n">
-        <v>2474</v>
+        <v>0</v>
       </c>
       <c r="DR2" t="n">
-        <v>735</v>
+        <v>383</v>
       </c>
       <c r="DS2" t="n">
         <v>0</v>
       </c>
       <c r="DT2" t="n">
-        <v>718</v>
+        <v>637</v>
       </c>
       <c r="DU2" t="n">
-        <v>262</v>
+        <v>1795</v>
       </c>
       <c r="DV2" t="n">
-        <v>1297</v>
+        <v>1140</v>
       </c>
       <c r="DW2" t="n">
-        <v>35</v>
+        <v>1302</v>
       </c>
       <c r="DX2" t="n">
-        <v>1654</v>
+        <v>27</v>
       </c>
       <c r="DY2" t="n">
-        <v>747</v>
+        <v>0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="EA2" t="n">
-        <v>2048</v>
+        <v>580</v>
       </c>
       <c r="EB2" t="n">
-        <v>727</v>
+        <v>577</v>
       </c>
       <c r="EC2" t="n">
-        <v>814</v>
+        <v>499</v>
       </c>
       <c r="ED2" t="n">
         <v>0</v>
@@ -61059,136 +61059,136 @@
         <v>0</v>
       </c>
       <c r="CA3" t="n">
-        <v>729</v>
+        <v>678</v>
       </c>
       <c r="CB3" t="n">
-        <v>846</v>
+        <v>902</v>
       </c>
       <c r="CC3" t="n">
-        <v>1223</v>
+        <v>292</v>
       </c>
       <c r="CD3" t="n">
-        <v>905</v>
+        <v>1196</v>
       </c>
       <c r="CE3" t="n">
-        <v>1764</v>
+        <v>0</v>
       </c>
       <c r="CF3" t="n">
-        <v>2113</v>
+        <v>31</v>
       </c>
       <c r="CG3" t="n">
-        <v>877</v>
+        <v>223</v>
       </c>
       <c r="CH3" t="n">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="CI3" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="CJ3" t="n">
-        <v>615</v>
+        <v>1373</v>
       </c>
       <c r="CK3" t="n">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="CL3" t="n">
-        <v>898</v>
+        <v>700</v>
       </c>
       <c r="CM3" t="n">
-        <v>385</v>
+        <v>24</v>
       </c>
       <c r="CN3" t="n">
-        <v>241</v>
+        <v>1346</v>
       </c>
       <c r="CO3" t="n">
-        <v>1117</v>
+        <v>1728</v>
       </c>
       <c r="CP3" t="n">
-        <v>1051</v>
+        <v>1791</v>
       </c>
       <c r="CQ3" t="n">
-        <v>2446</v>
+        <v>781</v>
       </c>
       <c r="CR3" t="n">
-        <v>1784</v>
+        <v>403</v>
       </c>
       <c r="CS3" t="n">
-        <v>0</v>
+        <v>1019</v>
       </c>
       <c r="CT3" t="n">
-        <v>965</v>
+        <v>0</v>
       </c>
       <c r="CU3" t="n">
-        <v>2823</v>
+        <v>880</v>
       </c>
       <c r="CV3" t="n">
-        <v>3220</v>
+        <v>4039</v>
       </c>
       <c r="CW3" t="n">
-        <v>1319</v>
+        <v>10</v>
       </c>
       <c r="CX3" t="n">
-        <v>0</v>
+        <v>943</v>
       </c>
       <c r="CY3" t="n">
-        <v>390</v>
+        <v>1159</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0</v>
+        <v>1019</v>
       </c>
       <c r="DA3" t="n">
-        <v>418</v>
+        <v>0</v>
       </c>
       <c r="DB3" t="n">
-        <v>573</v>
+        <v>1639</v>
       </c>
       <c r="DC3" t="n">
         <v>0</v>
       </c>
       <c r="DD3" t="n">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="DE3" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="DF3" t="n">
-        <v>507</v>
+        <v>856</v>
       </c>
       <c r="DG3" t="n">
-        <v>0</v>
+        <v>1957</v>
       </c>
       <c r="DH3" t="n">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="DI3" t="n">
         <v>0</v>
       </c>
       <c r="DJ3" t="n">
-        <v>659</v>
+        <v>177</v>
       </c>
       <c r="DK3" t="n">
-        <v>686</v>
+        <v>145</v>
       </c>
       <c r="DL3" t="n">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="DM3" t="n">
-        <v>1148</v>
+        <v>0</v>
       </c>
       <c r="DN3" t="n">
-        <v>425</v>
+        <v>605</v>
       </c>
       <c r="DO3" t="n">
-        <v>643</v>
+        <v>529</v>
       </c>
       <c r="DP3" t="n">
-        <v>1330</v>
+        <v>1550</v>
       </c>
       <c r="DQ3" t="n">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="DR3" t="n">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="DS3" t="n">
         <v>0</v>
@@ -61197,34 +61197,34 @@
         <v>0</v>
       </c>
       <c r="DU3" t="n">
-        <v>1311</v>
+        <v>0</v>
       </c>
       <c r="DV3" t="n">
-        <v>10</v>
+        <v>1767</v>
       </c>
       <c r="DW3" t="n">
-        <v>868</v>
+        <v>0</v>
       </c>
       <c r="DX3" t="n">
-        <v>1515</v>
+        <v>0</v>
       </c>
       <c r="DY3" t="n">
-        <v>1690</v>
+        <v>186</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="EA3" t="n">
-        <v>1404</v>
+        <v>3156</v>
       </c>
       <c r="EB3" t="n">
-        <v>1876</v>
+        <v>478</v>
       </c>
       <c r="EC3" t="n">
-        <v>1527</v>
+        <v>934</v>
       </c>
       <c r="ED3" t="n">
-        <v>78</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="4">
@@ -61463,169 +61463,169 @@
         <v>0</v>
       </c>
       <c r="CA4" t="n">
-        <v>1194</v>
+        <v>1096</v>
       </c>
       <c r="CB4" t="n">
         <v>0</v>
       </c>
       <c r="CC4" t="n">
-        <v>1353</v>
+        <v>1481</v>
       </c>
       <c r="CD4" t="n">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="CE4" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="CF4" t="n">
-        <v>0</v>
+        <v>393</v>
       </c>
       <c r="CG4" t="n">
-        <v>1492</v>
+        <v>1377</v>
       </c>
       <c r="CH4" t="n">
-        <v>1329</v>
+        <v>1733</v>
       </c>
       <c r="CI4" t="n">
-        <v>264</v>
+        <v>916</v>
       </c>
       <c r="CJ4" t="n">
-        <v>734</v>
+        <v>1164</v>
       </c>
       <c r="CK4" t="n">
-        <v>1176</v>
+        <v>661</v>
       </c>
       <c r="CL4" t="n">
-        <v>1168</v>
+        <v>41</v>
       </c>
       <c r="CM4" t="n">
-        <v>547</v>
+        <v>1289</v>
       </c>
       <c r="CN4" t="n">
-        <v>1003</v>
+        <v>1465</v>
       </c>
       <c r="CO4" t="n">
-        <v>1620</v>
+        <v>1360</v>
       </c>
       <c r="CP4" t="n">
-        <v>1294</v>
+        <v>1356</v>
       </c>
       <c r="CQ4" t="n">
-        <v>2210</v>
+        <v>2788</v>
       </c>
       <c r="CR4" t="n">
-        <v>2810</v>
+        <v>637</v>
       </c>
       <c r="CS4" t="n">
-        <v>0</v>
+        <v>1512</v>
       </c>
       <c r="CT4" t="n">
-        <v>1305</v>
+        <v>1265</v>
       </c>
       <c r="CU4" t="n">
-        <v>1691</v>
+        <v>2272</v>
       </c>
       <c r="CV4" t="n">
-        <v>2962</v>
+        <v>2733</v>
       </c>
       <c r="CW4" t="n">
-        <v>1259</v>
+        <v>884</v>
       </c>
       <c r="CX4" t="n">
-        <v>604</v>
+        <v>52</v>
       </c>
       <c r="CY4" t="n">
-        <v>995</v>
+        <v>795</v>
       </c>
       <c r="CZ4" t="n">
-        <v>305</v>
+        <v>1457</v>
       </c>
       <c r="DA4" t="n">
-        <v>1797</v>
+        <v>1674</v>
       </c>
       <c r="DB4" t="n">
-        <v>1470</v>
+        <v>545</v>
       </c>
       <c r="DC4" t="n">
-        <v>266</v>
+        <v>193</v>
       </c>
       <c r="DD4" t="n">
-        <v>964</v>
+        <v>786</v>
       </c>
       <c r="DE4" t="n">
-        <v>101</v>
+        <v>177</v>
       </c>
       <c r="DF4" t="n">
-        <v>760</v>
+        <v>649</v>
       </c>
       <c r="DG4" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
       </c>
       <c r="DI4" t="n">
-        <v>346</v>
+        <v>0</v>
       </c>
       <c r="DJ4" t="n">
-        <v>751</v>
+        <v>319</v>
       </c>
       <c r="DK4" t="n">
-        <v>0</v>
+        <v>1530</v>
       </c>
       <c r="DL4" t="n">
-        <v>105</v>
+        <v>444</v>
       </c>
       <c r="DM4" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="DN4" t="n">
-        <v>0</v>
+        <v>1419</v>
       </c>
       <c r="DO4" t="n">
-        <v>257</v>
+        <v>579</v>
       </c>
       <c r="DP4" t="n">
-        <v>394</v>
+        <v>195</v>
       </c>
       <c r="DQ4" t="n">
-        <v>560</v>
+        <v>2406</v>
       </c>
       <c r="DR4" t="n">
-        <v>0</v>
+        <v>965</v>
       </c>
       <c r="DS4" t="n">
-        <v>3211</v>
+        <v>0</v>
       </c>
       <c r="DT4" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="DU4" t="n">
-        <v>1175</v>
+        <v>0</v>
       </c>
       <c r="DV4" t="n">
-        <v>327</v>
+        <v>812</v>
       </c>
       <c r="DW4" t="n">
-        <v>834</v>
+        <v>0</v>
       </c>
       <c r="DX4" t="n">
-        <v>1477</v>
+        <v>1035</v>
       </c>
       <c r="DY4" t="n">
-        <v>2015</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>950</v>
+        <v>2113</v>
       </c>
       <c r="EA4" t="n">
-        <v>595</v>
+        <v>0</v>
       </c>
       <c r="EB4" t="n">
-        <v>1384</v>
+        <v>453</v>
       </c>
       <c r="EC4" t="n">
-        <v>0</v>
+        <v>1391</v>
       </c>
       <c r="ED4" t="n">
         <v>0</v>
@@ -61867,172 +61867,172 @@
         <v>0</v>
       </c>
       <c r="CA5" t="n">
-        <v>669</v>
+        <v>314</v>
       </c>
       <c r="CB5" t="n">
-        <v>0</v>
+        <v>1120</v>
       </c>
       <c r="CC5" t="n">
-        <v>888</v>
+        <v>1424</v>
       </c>
       <c r="CD5" t="n">
-        <v>1081</v>
+        <v>1571</v>
       </c>
       <c r="CE5" t="n">
-        <v>1569</v>
+        <v>954</v>
       </c>
       <c r="CF5" t="n">
         <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>1613</v>
+        <v>2140</v>
       </c>
       <c r="CH5" t="n">
-        <v>1067</v>
+        <v>0</v>
       </c>
       <c r="CI5" t="n">
-        <v>1775</v>
+        <v>111</v>
       </c>
       <c r="CJ5" t="n">
-        <v>563</v>
+        <v>1159</v>
       </c>
       <c r="CK5" t="n">
-        <v>1207</v>
+        <v>1404</v>
       </c>
       <c r="CL5" t="n">
-        <v>1373</v>
+        <v>188</v>
       </c>
       <c r="CM5" t="n">
-        <v>653</v>
+        <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="CO5" t="n">
-        <v>1677</v>
+        <v>1100</v>
       </c>
       <c r="CP5" t="n">
-        <v>1653</v>
+        <v>500</v>
       </c>
       <c r="CQ5" t="n">
-        <v>2621</v>
+        <v>1958</v>
       </c>
       <c r="CR5" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="CS5" t="n">
-        <v>1024</v>
+        <v>163</v>
       </c>
       <c r="CT5" t="n">
-        <v>748</v>
+        <v>1443</v>
       </c>
       <c r="CU5" t="n">
-        <v>1255</v>
+        <v>520</v>
       </c>
       <c r="CV5" t="n">
-        <v>1416</v>
+        <v>98</v>
       </c>
       <c r="CW5" t="n">
-        <v>1175</v>
+        <v>788</v>
       </c>
       <c r="CX5" t="n">
-        <v>684</v>
+        <v>285</v>
       </c>
       <c r="CY5" t="n">
-        <v>1122</v>
+        <v>798</v>
       </c>
       <c r="CZ5" t="n">
-        <v>2329</v>
+        <v>247</v>
       </c>
       <c r="DA5" t="n">
-        <v>1657</v>
+        <v>241</v>
       </c>
       <c r="DB5" t="n">
-        <v>841</v>
+        <v>1162</v>
       </c>
       <c r="DC5" t="n">
         <v>0</v>
       </c>
       <c r="DD5" t="n">
-        <v>0</v>
+        <v>1048</v>
       </c>
       <c r="DE5" t="n">
-        <v>619</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>429</v>
+        <v>466</v>
       </c>
       <c r="DG5" t="n">
-        <v>493</v>
+        <v>372</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
       </c>
       <c r="DI5" t="n">
-        <v>2219</v>
+        <v>222</v>
       </c>
       <c r="DJ5" t="n">
-        <v>422</v>
+        <v>634</v>
       </c>
       <c r="DK5" t="n">
-        <v>0</v>
+        <v>1848</v>
       </c>
       <c r="DL5" t="n">
-        <v>947</v>
+        <v>640</v>
       </c>
       <c r="DM5" t="n">
-        <v>547</v>
+        <v>1037</v>
       </c>
       <c r="DN5" t="n">
-        <v>1625</v>
+        <v>13</v>
       </c>
       <c r="DO5" t="n">
-        <v>984</v>
+        <v>421</v>
       </c>
       <c r="DP5" t="n">
-        <v>698</v>
+        <v>405</v>
       </c>
       <c r="DQ5" t="n">
-        <v>1539</v>
+        <v>1432</v>
       </c>
       <c r="DR5" t="n">
-        <v>0</v>
+        <v>1134</v>
       </c>
       <c r="DS5" t="n">
-        <v>1032</v>
+        <v>752</v>
       </c>
       <c r="DT5" t="n">
-        <v>1449</v>
+        <v>236</v>
       </c>
       <c r="DU5" t="n">
-        <v>2017</v>
+        <v>0</v>
       </c>
       <c r="DV5" t="n">
-        <v>1911</v>
+        <v>2836</v>
       </c>
       <c r="DW5" t="n">
-        <v>0</v>
+        <v>1197</v>
       </c>
       <c r="DX5" t="n">
-        <v>1092</v>
+        <v>720</v>
       </c>
       <c r="DY5" t="n">
         <v>0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>1838</v>
+        <v>499</v>
       </c>
       <c r="EA5" t="n">
-        <v>1487</v>
+        <v>387</v>
       </c>
       <c r="EB5" t="n">
-        <v>0</v>
+        <v>2206</v>
       </c>
       <c r="EC5" t="n">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="ED5" t="n">
-        <v>959</v>
+        <v>602</v>
       </c>
     </row>
     <row r="6">
@@ -62271,172 +62271,1788 @@
         <v>0</v>
       </c>
       <c r="CA6" t="n">
-        <v>939</v>
+        <v>1350</v>
       </c>
       <c r="CB6" t="n">
-        <v>640</v>
+        <v>0</v>
       </c>
       <c r="CC6" t="n">
-        <v>1306</v>
+        <v>1663</v>
       </c>
       <c r="CD6" t="n">
-        <v>1787</v>
+        <v>2046</v>
       </c>
       <c r="CE6" t="n">
-        <v>334</v>
+        <v>2265</v>
       </c>
       <c r="CF6" t="n">
-        <v>1671</v>
+        <v>0</v>
       </c>
       <c r="CG6" t="n">
-        <v>1443</v>
+        <v>1850</v>
       </c>
       <c r="CH6" t="n">
-        <v>832</v>
+        <v>1113</v>
       </c>
       <c r="CI6" t="n">
-        <v>0</v>
+        <v>543</v>
       </c>
       <c r="CJ6" t="n">
-        <v>1032</v>
+        <v>0</v>
       </c>
       <c r="CK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>1338</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>282</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>63</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>1317</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>381</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>1230</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>720</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>30</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>1089</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>1458</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>1597</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>472</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>470</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>1122</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>1662</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB6" t="n">
+        <v>669</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>1146</v>
+      </c>
+      <c r="DD6" t="n">
+        <v>497</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>912</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>519</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>834</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>737</v>
+      </c>
+      <c r="DK6" t="n">
+        <v>547</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>283</v>
+      </c>
+      <c r="DM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN6" t="n">
+        <v>877</v>
+      </c>
+      <c r="DO6" t="n">
+        <v>1269</v>
+      </c>
+      <c r="DP6" t="n">
+        <v>394</v>
+      </c>
+      <c r="DQ6" t="n">
+        <v>433</v>
+      </c>
+      <c r="DR6" t="n">
+        <v>393</v>
+      </c>
+      <c r="DS6" t="n">
+        <v>976</v>
+      </c>
+      <c r="DT6" t="n">
+        <v>31</v>
+      </c>
+      <c r="DU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV6" t="n">
+        <v>1385</v>
+      </c>
+      <c r="DW6" t="n">
+        <v>934</v>
+      </c>
+      <c r="DX6" t="n">
+        <v>804</v>
+      </c>
+      <c r="DY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA6" t="n">
+        <v>1261</v>
+      </c>
+      <c r="EB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC6" t="n">
+        <v>781</v>
+      </c>
+      <c r="ED6" t="n">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>762</v>
+      </c>
+      <c r="CB7" t="n">
         <v>1183</v>
       </c>
-      <c r="CL6" t="n">
+      <c r="CC7" t="n">
+        <v>1172</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>2212</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>1621</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>989</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>1055</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>278</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>526</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>760</v>
+      </c>
+      <c r="CK7" t="n">
         <v>1208</v>
       </c>
-      <c r="CM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN6" t="n">
+      <c r="CL7" t="n">
+        <v>1461</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>587</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>1107</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>97</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>614</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>1661</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>1480</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>1970</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>1133</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>2444</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>520</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>1080</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>480</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>2005</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>898</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>396</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>1250</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>1035</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>55</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>704</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>786</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>433</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>726</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>233</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>691</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>1332</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>259</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>1070</v>
+      </c>
+      <c r="DQ7" t="n">
+        <v>2657</v>
+      </c>
+      <c r="DR7" t="n">
+        <v>452</v>
+      </c>
+      <c r="DS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT7" t="n">
+        <v>1730</v>
+      </c>
+      <c r="DU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW7" t="n">
+        <v>298</v>
+      </c>
+      <c r="DX7" t="n">
+        <v>929</v>
+      </c>
+      <c r="DY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA7" t="n">
+        <v>1813</v>
+      </c>
+      <c r="EB7" t="n">
+        <v>2292</v>
+      </c>
+      <c r="EC7" t="n">
+        <v>246</v>
+      </c>
+      <c r="ED7" t="n">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>296</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>423</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>1389</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>943</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>123</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>1253</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>549</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>418</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>754</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>1261</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>663</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>440</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>1116</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>990</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>984</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>3146</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>1385</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>2211</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>1629</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>2606</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>3957</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>144</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>505</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>914</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>1662</v>
+      </c>
+      <c r="DA8" t="n">
+        <v>1437</v>
+      </c>
+      <c r="DB8" t="n">
+        <v>477</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>1493</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>1445</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>982</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>310</v>
+      </c>
+      <c r="DG8" t="n">
+        <v>94</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>395</v>
+      </c>
+      <c r="DI8" t="n">
+        <v>2102</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>344</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>835</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>337</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>126</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>774</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>143</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>480</v>
+      </c>
+      <c r="DQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR8" t="n">
+        <v>611</v>
+      </c>
+      <c r="DS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT8" t="n">
+        <v>1139</v>
+      </c>
+      <c r="DU8" t="n">
+        <v>863</v>
+      </c>
+      <c r="DV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW8" t="n">
+        <v>1098</v>
+      </c>
+      <c r="DX8" t="n">
+        <v>1073</v>
+      </c>
+      <c r="DY8" t="n">
+        <v>572</v>
+      </c>
+      <c r="DZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA8" t="n">
+        <v>1594</v>
+      </c>
+      <c r="EB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED8" t="n">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>1466</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>1633</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>1191</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>186</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>1943</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>331</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>788</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>934</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>898</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>208</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>1020</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>526</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>1105</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>1412</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>1698</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>1708</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>237</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>2066</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>1593</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>2035</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>1945</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>614</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>473</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>263</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>1429</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>1415</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>690</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>1126</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>754</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>490</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>163</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>221</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>877</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>673</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>860</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>146</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>714</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>226</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS9" t="n">
+        <v>1986</v>
+      </c>
+      <c r="DT9" t="n">
+        <v>1466</v>
+      </c>
+      <c r="DU9" t="n">
+        <v>1475</v>
+      </c>
+      <c r="DV9" t="n">
+        <v>154</v>
+      </c>
+      <c r="DW9" t="n">
+        <v>1514</v>
+      </c>
+      <c r="DX9" t="n">
+        <v>520</v>
+      </c>
+      <c r="DY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ9" t="n">
+        <v>1029</v>
+      </c>
+      <c r="EA9" t="n">
+        <v>2057</v>
+      </c>
+      <c r="EB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC9" t="n">
+        <v>1569</v>
+      </c>
+      <c r="ED9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>1442</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>1292</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>1147</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>1510</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>352</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>1169</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>1311</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>428</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>903</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>484</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>1349</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>1494</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>825</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>837</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>1351</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>2392</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>909</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>2181</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>1302</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>1503</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>838</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>441</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>692</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>544</v>
+      </c>
+      <c r="DA10" t="n">
+        <v>908</v>
+      </c>
+      <c r="DB10" t="n">
+        <v>2103</v>
+      </c>
+      <c r="DC10" t="n">
         <v>1541</v>
       </c>
-      <c r="CO6" t="n">
-        <v>1926</v>
-      </c>
-      <c r="CP6" t="n">
-        <v>1072</v>
-      </c>
-      <c r="CQ6" t="n">
-        <v>3977</v>
-      </c>
-      <c r="CR6" t="n">
-        <v>1715</v>
-      </c>
-      <c r="CS6" t="n">
-        <v>1547</v>
-      </c>
-      <c r="CT6" t="n">
-        <v>1285</v>
-      </c>
-      <c r="CU6" t="n">
-        <v>607</v>
-      </c>
-      <c r="CV6" t="n">
-        <v>846</v>
-      </c>
-      <c r="CW6" t="n">
-        <v>140</v>
-      </c>
-      <c r="CX6" t="n">
-        <v>145</v>
-      </c>
-      <c r="CY6" t="n">
-        <v>147</v>
-      </c>
-      <c r="CZ6" t="n">
-        <v>852</v>
-      </c>
-      <c r="DA6" t="n">
-        <v>437</v>
-      </c>
-      <c r="DB6" t="n">
-        <v>2033</v>
-      </c>
-      <c r="DC6" t="n">
-        <v>153</v>
-      </c>
-      <c r="DD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE6" t="n">
-        <v>95</v>
-      </c>
-      <c r="DF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG6" t="n">
-        <v>769</v>
-      </c>
-      <c r="DH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ6" t="n">
-        <v>328</v>
-      </c>
-      <c r="DK6" t="n">
-        <v>248</v>
-      </c>
-      <c r="DL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM6" t="n">
-        <v>660</v>
-      </c>
-      <c r="DN6" t="n">
-        <v>796</v>
-      </c>
-      <c r="DO6" t="n">
-        <v>552</v>
-      </c>
-      <c r="DP6" t="n">
-        <v>665</v>
-      </c>
-      <c r="DQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR6" t="n">
-        <v>754</v>
-      </c>
-      <c r="DS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT6" t="n">
-        <v>421</v>
-      </c>
-      <c r="DU6" t="n">
-        <v>1044</v>
-      </c>
-      <c r="DV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW6" t="n">
-        <v>199</v>
-      </c>
-      <c r="DX6" t="n">
-        <v>1551</v>
-      </c>
-      <c r="DY6" t="n">
-        <v>528</v>
-      </c>
-      <c r="DZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC6" t="n">
-        <v>221</v>
-      </c>
-      <c r="ED6" t="n">
-        <v>4087</v>
+      <c r="DD10" t="n">
+        <v>749</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>618</v>
+      </c>
+      <c r="DG10" t="n">
+        <v>234</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>703</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>648</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>868</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>339</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>553</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>341</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>702</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>179</v>
+      </c>
+      <c r="DQ10" t="n">
+        <v>1224</v>
+      </c>
+      <c r="DR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS10" t="n">
+        <v>42</v>
+      </c>
+      <c r="DT10" t="n">
+        <v>2418</v>
+      </c>
+      <c r="DU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW10" t="n">
+        <v>1153</v>
+      </c>
+      <c r="DX10" t="n">
+        <v>696</v>
+      </c>
+      <c r="DY10" t="n">
+        <v>352</v>
+      </c>
+      <c r="DZ10" t="n">
+        <v>759</v>
+      </c>
+      <c r="EA10" t="n">
+        <v>1201</v>
+      </c>
+      <c r="EB10" t="n">
+        <v>862</v>
+      </c>
+      <c r="EC10" t="n">
+        <v>1162</v>
+      </c>
+      <c r="ED10" t="n">
+        <v>1199</v>
       </c>
     </row>
   </sheetData>
@@ -62450,7 +64066,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ED6"/>
+  <dimension ref="A1:ED10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63361,169 +64977,169 @@
         <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>20.875</v>
+        <v>149</v>
       </c>
       <c r="CB2" t="n">
+        <v>168.625</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>171.75</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>49.25</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>221.75</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>278</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>155</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>86.375</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>99</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>143.875</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>182</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>221</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>227.375</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>357.75</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>49.375</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>108.375</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>129.75</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>82.375</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>60.625</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>247.25</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>228.625</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>175</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>109.75</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>83.25</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>54</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>22</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>222.75</v>
+      </c>
+      <c r="DL2" t="n">
         <v>156.875</v>
       </c>
-      <c r="CC2" t="n">
-        <v>182.25</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>136.75</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>96.875</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>146.25</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>114.625</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>94.375</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>243</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>144.375</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>141.125</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>45.375</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>492.25</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>83</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>117.125</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>46.75</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>66.125</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>80.75</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>249.625</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>100</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>100.125</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>160.625</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>139.75</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>153.125</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>201.875</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>78.25</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>39.375</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>156.875</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>121.625</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>67.875</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>124.375</v>
-      </c>
       <c r="DM2" t="n">
-        <v>0</v>
+        <v>88.25</v>
       </c>
       <c r="DN2" t="n">
-        <v>172.25</v>
+        <v>27</v>
       </c>
       <c r="DO2" t="n">
-        <v>61.875</v>
+        <v>15.5</v>
       </c>
       <c r="DP2" t="n">
-        <v>0</v>
+        <v>166.75</v>
       </c>
       <c r="DQ2" t="n">
-        <v>309.25</v>
+        <v>0</v>
       </c>
       <c r="DR2" t="n">
-        <v>91.875</v>
+        <v>47.875</v>
       </c>
       <c r="DS2" t="n">
         <v>0</v>
       </c>
       <c r="DT2" t="n">
-        <v>89.75</v>
+        <v>79.625</v>
       </c>
       <c r="DU2" t="n">
-        <v>32.75</v>
+        <v>224.375</v>
       </c>
       <c r="DV2" t="n">
-        <v>162.125</v>
+        <v>142.5</v>
       </c>
       <c r="DW2" t="n">
-        <v>4.375</v>
+        <v>162.75</v>
       </c>
       <c r="DX2" t="n">
-        <v>206.75</v>
+        <v>3.375</v>
       </c>
       <c r="DY2" t="n">
-        <v>93.375</v>
+        <v>0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="EA2" t="n">
-        <v>256</v>
+        <v>72.5</v>
       </c>
       <c r="EB2" t="n">
-        <v>90.875</v>
+        <v>72.125</v>
       </c>
       <c r="EC2" t="n">
-        <v>101.75</v>
+        <v>62.375</v>
       </c>
       <c r="ED2" t="n">
         <v>0</v>
@@ -63765,136 +65381,136 @@
         <v>0</v>
       </c>
       <c r="CA3" t="n">
-        <v>136.6875</v>
+        <v>127.125</v>
       </c>
       <c r="CB3" t="n">
-        <v>158.625</v>
+        <v>169.125</v>
       </c>
       <c r="CC3" t="n">
-        <v>229.3125</v>
+        <v>54.75</v>
       </c>
       <c r="CD3" t="n">
-        <v>169.6875</v>
+        <v>224.25</v>
       </c>
       <c r="CE3" t="n">
-        <v>330.75</v>
+        <v>0</v>
       </c>
       <c r="CF3" t="n">
-        <v>396.1875</v>
+        <v>5.8125</v>
       </c>
       <c r="CG3" t="n">
-        <v>164.4375</v>
+        <v>41.8125</v>
       </c>
       <c r="CH3" t="n">
-        <v>79.5</v>
+        <v>81.5625</v>
       </c>
       <c r="CI3" t="n">
-        <v>0</v>
+        <v>12.1875</v>
       </c>
       <c r="CJ3" t="n">
-        <v>115.3125</v>
+        <v>257.4375</v>
       </c>
       <c r="CK3" t="n">
-        <v>75.75</v>
+        <v>80.25</v>
       </c>
       <c r="CL3" t="n">
-        <v>168.375</v>
+        <v>131.25</v>
       </c>
       <c r="CM3" t="n">
-        <v>72.1875</v>
+        <v>4.5</v>
       </c>
       <c r="CN3" t="n">
-        <v>45.1875</v>
+        <v>252.375</v>
       </c>
       <c r="CO3" t="n">
-        <v>209.4375</v>
+        <v>324</v>
       </c>
       <c r="CP3" t="n">
-        <v>197.0625</v>
+        <v>335.8125</v>
       </c>
       <c r="CQ3" t="n">
-        <v>458.625</v>
+        <v>146.4375</v>
       </c>
       <c r="CR3" t="n">
-        <v>334.5</v>
+        <v>75.5625</v>
       </c>
       <c r="CS3" t="n">
-        <v>0</v>
+        <v>191.0625</v>
       </c>
       <c r="CT3" t="n">
-        <v>180.9375</v>
+        <v>0</v>
       </c>
       <c r="CU3" t="n">
-        <v>529.3125</v>
+        <v>165</v>
       </c>
       <c r="CV3" t="n">
-        <v>603.75</v>
+        <v>757.3125</v>
       </c>
       <c r="CW3" t="n">
-        <v>247.3125</v>
+        <v>1.875</v>
       </c>
       <c r="CX3" t="n">
-        <v>0</v>
+        <v>176.8125</v>
       </c>
       <c r="CY3" t="n">
-        <v>73.125</v>
+        <v>217.3125</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0</v>
+        <v>191.0625</v>
       </c>
       <c r="DA3" t="n">
-        <v>78.375</v>
+        <v>0</v>
       </c>
       <c r="DB3" t="n">
-        <v>107.4375</v>
+        <v>307.3125</v>
       </c>
       <c r="DC3" t="n">
         <v>0</v>
       </c>
       <c r="DD3" t="n">
-        <v>58.125</v>
+        <v>0</v>
       </c>
       <c r="DE3" t="n">
-        <v>0</v>
+        <v>12.375</v>
       </c>
       <c r="DF3" t="n">
-        <v>95.0625</v>
+        <v>160.5</v>
       </c>
       <c r="DG3" t="n">
-        <v>0</v>
+        <v>366.9375</v>
       </c>
       <c r="DH3" t="n">
-        <v>0</v>
+        <v>63.1875</v>
       </c>
       <c r="DI3" t="n">
         <v>0</v>
       </c>
       <c r="DJ3" t="n">
-        <v>123.5625</v>
+        <v>33.1875</v>
       </c>
       <c r="DK3" t="n">
-        <v>128.625</v>
+        <v>27.1875</v>
       </c>
       <c r="DL3" t="n">
-        <v>143.0625</v>
+        <v>141</v>
       </c>
       <c r="DM3" t="n">
-        <v>215.25</v>
+        <v>0</v>
       </c>
       <c r="DN3" t="n">
-        <v>79.6875</v>
+        <v>113.4375</v>
       </c>
       <c r="DO3" t="n">
-        <v>120.5625</v>
+        <v>99.1875</v>
       </c>
       <c r="DP3" t="n">
-        <v>249.375</v>
+        <v>290.625</v>
       </c>
       <c r="DQ3" t="n">
-        <v>63.1875</v>
+        <v>0</v>
       </c>
       <c r="DR3" t="n">
-        <v>47.8125</v>
+        <v>14.4375</v>
       </c>
       <c r="DS3" t="n">
         <v>0</v>
@@ -63903,34 +65519,34 @@
         <v>0</v>
       </c>
       <c r="DU3" t="n">
-        <v>245.8125</v>
+        <v>0</v>
       </c>
       <c r="DV3" t="n">
-        <v>1.875</v>
+        <v>331.3125</v>
       </c>
       <c r="DW3" t="n">
-        <v>162.75</v>
+        <v>0</v>
       </c>
       <c r="DX3" t="n">
-        <v>284.0625</v>
+        <v>0</v>
       </c>
       <c r="DY3" t="n">
-        <v>316.875</v>
+        <v>34.875</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0</v>
+        <v>57.375</v>
       </c>
       <c r="EA3" t="n">
-        <v>263.25</v>
+        <v>591.75</v>
       </c>
       <c r="EB3" t="n">
-        <v>351.75</v>
+        <v>89.625</v>
       </c>
       <c r="EC3" t="n">
-        <v>286.3125</v>
+        <v>175.125</v>
       </c>
       <c r="ED3" t="n">
-        <v>14.625</v>
+        <v>497.625</v>
       </c>
     </row>
     <row r="4">
@@ -64169,169 +65785,169 @@
         <v>0</v>
       </c>
       <c r="CA4" t="n">
-        <v>261.1875</v>
+        <v>239.75</v>
       </c>
       <c r="CB4" t="n">
         <v>0</v>
       </c>
       <c r="CC4" t="n">
-        <v>295.96875</v>
+        <v>323.96875</v>
       </c>
       <c r="CD4" t="n">
-        <v>0</v>
+        <v>65.40625</v>
       </c>
       <c r="CE4" t="n">
-        <v>0</v>
+        <v>162.75</v>
       </c>
       <c r="CF4" t="n">
-        <v>0</v>
+        <v>85.96875</v>
       </c>
       <c r="CG4" t="n">
-        <v>326.375</v>
+        <v>301.21875</v>
       </c>
       <c r="CH4" t="n">
-        <v>290.71875</v>
+        <v>379.09375</v>
       </c>
       <c r="CI4" t="n">
-        <v>57.75</v>
+        <v>200.375</v>
       </c>
       <c r="CJ4" t="n">
-        <v>160.5625</v>
+        <v>254.625</v>
       </c>
       <c r="CK4" t="n">
-        <v>257.25</v>
+        <v>144.59375</v>
       </c>
       <c r="CL4" t="n">
-        <v>255.5</v>
+        <v>8.96875</v>
       </c>
       <c r="CM4" t="n">
-        <v>119.65625</v>
+        <v>281.96875</v>
       </c>
       <c r="CN4" t="n">
-        <v>219.40625</v>
+        <v>320.46875</v>
       </c>
       <c r="CO4" t="n">
-        <v>354.375</v>
+        <v>297.5</v>
       </c>
       <c r="CP4" t="n">
-        <v>283.0625</v>
+        <v>296.625</v>
       </c>
       <c r="CQ4" t="n">
-        <v>483.4375</v>
+        <v>609.875</v>
       </c>
       <c r="CR4" t="n">
-        <v>614.6875</v>
+        <v>139.34375</v>
       </c>
       <c r="CS4" t="n">
-        <v>0</v>
+        <v>330.75</v>
       </c>
       <c r="CT4" t="n">
-        <v>285.46875</v>
+        <v>276.71875</v>
       </c>
       <c r="CU4" t="n">
-        <v>369.90625</v>
+        <v>497</v>
       </c>
       <c r="CV4" t="n">
-        <v>647.9375</v>
+        <v>597.84375</v>
       </c>
       <c r="CW4" t="n">
-        <v>275.40625</v>
+        <v>193.375</v>
       </c>
       <c r="CX4" t="n">
-        <v>132.125</v>
+        <v>11.375</v>
       </c>
       <c r="CY4" t="n">
-        <v>217.65625</v>
+        <v>173.90625</v>
       </c>
       <c r="CZ4" t="n">
-        <v>66.71875</v>
+        <v>318.71875</v>
       </c>
       <c r="DA4" t="n">
-        <v>393.09375</v>
+        <v>366.1875</v>
       </c>
       <c r="DB4" t="n">
-        <v>321.5625</v>
+        <v>119.21875</v>
       </c>
       <c r="DC4" t="n">
-        <v>58.1875</v>
+        <v>42.21875</v>
       </c>
       <c r="DD4" t="n">
-        <v>210.875</v>
+        <v>171.9375</v>
       </c>
       <c r="DE4" t="n">
-        <v>22.09375</v>
+        <v>38.71875</v>
       </c>
       <c r="DF4" t="n">
-        <v>166.25</v>
+        <v>141.96875</v>
       </c>
       <c r="DG4" t="n">
-        <v>0</v>
+        <v>212.1875</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
       </c>
       <c r="DI4" t="n">
-        <v>75.6875</v>
+        <v>0</v>
       </c>
       <c r="DJ4" t="n">
-        <v>164.28125</v>
+        <v>69.78125</v>
       </c>
       <c r="DK4" t="n">
-        <v>0</v>
+        <v>334.6875</v>
       </c>
       <c r="DL4" t="n">
-        <v>22.96875</v>
+        <v>97.125</v>
       </c>
       <c r="DM4" t="n">
-        <v>0</v>
+        <v>10.71875</v>
       </c>
       <c r="DN4" t="n">
-        <v>0</v>
+        <v>310.40625</v>
       </c>
       <c r="DO4" t="n">
-        <v>56.21875</v>
+        <v>126.65625</v>
       </c>
       <c r="DP4" t="n">
-        <v>86.1875</v>
+        <v>42.65625</v>
       </c>
       <c r="DQ4" t="n">
-        <v>122.5</v>
+        <v>526.3125</v>
       </c>
       <c r="DR4" t="n">
-        <v>0</v>
+        <v>211.09375</v>
       </c>
       <c r="DS4" t="n">
-        <v>702.40625</v>
+        <v>0</v>
       </c>
       <c r="DT4" t="n">
-        <v>54.6875</v>
+        <v>0</v>
       </c>
       <c r="DU4" t="n">
-        <v>257.03125</v>
+        <v>0</v>
       </c>
       <c r="DV4" t="n">
-        <v>71.53125</v>
+        <v>177.625</v>
       </c>
       <c r="DW4" t="n">
-        <v>182.4375</v>
+        <v>0</v>
       </c>
       <c r="DX4" t="n">
-        <v>323.09375</v>
+        <v>226.40625</v>
       </c>
       <c r="DY4" t="n">
-        <v>440.78125</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>207.8125</v>
+        <v>462.21875</v>
       </c>
       <c r="EA4" t="n">
-        <v>130.15625</v>
+        <v>0</v>
       </c>
       <c r="EB4" t="n">
-        <v>302.75</v>
+        <v>99.09375</v>
       </c>
       <c r="EC4" t="n">
-        <v>0</v>
+        <v>304.28125</v>
       </c>
       <c r="ED4" t="n">
         <v>0</v>
@@ -64573,172 +66189,172 @@
         <v>0</v>
       </c>
       <c r="CA5" t="n">
-        <v>156.796875</v>
+        <v>73.59375</v>
       </c>
       <c r="CB5" t="n">
-        <v>0</v>
+        <v>262.5</v>
       </c>
       <c r="CC5" t="n">
-        <v>208.125</v>
+        <v>333.75</v>
       </c>
       <c r="CD5" t="n">
-        <v>253.359375</v>
+        <v>368.203125</v>
       </c>
       <c r="CE5" t="n">
-        <v>367.734375</v>
+        <v>223.59375</v>
       </c>
       <c r="CF5" t="n">
         <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>378.046875</v>
+        <v>501.5625</v>
       </c>
       <c r="CH5" t="n">
-        <v>250.078125</v>
+        <v>0</v>
       </c>
       <c r="CI5" t="n">
-        <v>416.015625</v>
+        <v>26.015625</v>
       </c>
       <c r="CJ5" t="n">
-        <v>131.953125</v>
+        <v>271.640625</v>
       </c>
       <c r="CK5" t="n">
-        <v>282.890625</v>
+        <v>329.0625</v>
       </c>
       <c r="CL5" t="n">
-        <v>321.796875</v>
+        <v>44.0625</v>
       </c>
       <c r="CM5" t="n">
-        <v>153.046875</v>
+        <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>41.953125</v>
+        <v>3.28125</v>
       </c>
       <c r="CO5" t="n">
-        <v>393.046875</v>
+        <v>257.8125</v>
       </c>
       <c r="CP5" t="n">
-        <v>387.421875</v>
+        <v>117.1875</v>
       </c>
       <c r="CQ5" t="n">
-        <v>614.296875</v>
+        <v>458.90625</v>
       </c>
       <c r="CR5" t="n">
-        <v>15.234375</v>
+        <v>0</v>
       </c>
       <c r="CS5" t="n">
-        <v>240</v>
+        <v>38.203125</v>
       </c>
       <c r="CT5" t="n">
-        <v>175.3125</v>
+        <v>338.203125</v>
       </c>
       <c r="CU5" t="n">
-        <v>294.140625</v>
+        <v>121.875</v>
       </c>
       <c r="CV5" t="n">
-        <v>331.875</v>
+        <v>22.96875</v>
       </c>
       <c r="CW5" t="n">
-        <v>275.390625</v>
+        <v>184.6875</v>
       </c>
       <c r="CX5" t="n">
-        <v>160.3125</v>
+        <v>66.796875</v>
       </c>
       <c r="CY5" t="n">
-        <v>262.96875</v>
+        <v>187.03125</v>
       </c>
       <c r="CZ5" t="n">
-        <v>545.859375</v>
+        <v>57.890625</v>
       </c>
       <c r="DA5" t="n">
-        <v>388.359375</v>
+        <v>56.484375</v>
       </c>
       <c r="DB5" t="n">
-        <v>197.109375</v>
+        <v>272.34375</v>
       </c>
       <c r="DC5" t="n">
         <v>0</v>
       </c>
       <c r="DD5" t="n">
-        <v>0</v>
+        <v>245.625</v>
       </c>
       <c r="DE5" t="n">
-        <v>145.078125</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>100.546875</v>
+        <v>109.21875</v>
       </c>
       <c r="DG5" t="n">
-        <v>115.546875</v>
+        <v>87.1875</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
       </c>
       <c r="DI5" t="n">
-        <v>520.078125</v>
+        <v>52.03125</v>
       </c>
       <c r="DJ5" t="n">
-        <v>98.90625</v>
+        <v>148.59375</v>
       </c>
       <c r="DK5" t="n">
-        <v>0</v>
+        <v>433.125</v>
       </c>
       <c r="DL5" t="n">
-        <v>221.953125</v>
+        <v>150</v>
       </c>
       <c r="DM5" t="n">
-        <v>128.203125</v>
+        <v>243.046875</v>
       </c>
       <c r="DN5" t="n">
-        <v>380.859375</v>
+        <v>3.046875</v>
       </c>
       <c r="DO5" t="n">
-        <v>230.625</v>
+        <v>98.671875</v>
       </c>
       <c r="DP5" t="n">
-        <v>163.59375</v>
+        <v>94.921875</v>
       </c>
       <c r="DQ5" t="n">
-        <v>360.703125</v>
+        <v>335.625</v>
       </c>
       <c r="DR5" t="n">
-        <v>0</v>
+        <v>265.78125</v>
       </c>
       <c r="DS5" t="n">
-        <v>241.875</v>
+        <v>176.25</v>
       </c>
       <c r="DT5" t="n">
-        <v>339.609375</v>
+        <v>55.3125</v>
       </c>
       <c r="DU5" t="n">
-        <v>472.734375</v>
+        <v>0</v>
       </c>
       <c r="DV5" t="n">
-        <v>447.890625</v>
+        <v>664.6875</v>
       </c>
       <c r="DW5" t="n">
-        <v>0</v>
+        <v>280.546875</v>
       </c>
       <c r="DX5" t="n">
-        <v>255.9375</v>
+        <v>168.75</v>
       </c>
       <c r="DY5" t="n">
         <v>0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>430.78125</v>
+        <v>116.953125</v>
       </c>
       <c r="EA5" t="n">
-        <v>348.515625</v>
+        <v>90.703125</v>
       </c>
       <c r="EB5" t="n">
-        <v>0</v>
+        <v>517.03125</v>
       </c>
       <c r="EC5" t="n">
-        <v>0</v>
+        <v>36.328125</v>
       </c>
       <c r="ED5" t="n">
-        <v>224.765625</v>
+        <v>141.09375</v>
       </c>
     </row>
     <row r="6">
@@ -64977,103 +66593,103 @@
         <v>0</v>
       </c>
       <c r="CA6" t="n">
-        <v>227.4140625</v>
+        <v>326.953125</v>
       </c>
       <c r="CB6" t="n">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="CC6" t="n">
-        <v>316.296875</v>
+        <v>402.7578125</v>
       </c>
       <c r="CD6" t="n">
-        <v>432.7890625</v>
+        <v>495.515625</v>
       </c>
       <c r="CE6" t="n">
-        <v>80.890625</v>
+        <v>548.5546875</v>
       </c>
       <c r="CF6" t="n">
-        <v>404.6953125</v>
+        <v>0</v>
       </c>
       <c r="CG6" t="n">
-        <v>349.4765625</v>
+        <v>448.046875</v>
       </c>
       <c r="CH6" t="n">
-        <v>201.5</v>
+        <v>269.5546875</v>
       </c>
       <c r="CI6" t="n">
-        <v>0</v>
+        <v>131.5078125</v>
       </c>
       <c r="CJ6" t="n">
-        <v>249.9375</v>
+        <v>0</v>
       </c>
       <c r="CK6" t="n">
-        <v>286.5078125</v>
+        <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>292.5625</v>
+        <v>324.046875</v>
       </c>
       <c r="CM6" t="n">
-        <v>0</v>
+        <v>68.296875</v>
       </c>
       <c r="CN6" t="n">
-        <v>373.2109375</v>
+        <v>15.2578125</v>
       </c>
       <c r="CO6" t="n">
-        <v>466.453125</v>
+        <v>318.9609375</v>
       </c>
       <c r="CP6" t="n">
-        <v>259.625</v>
+        <v>92.2734375</v>
       </c>
       <c r="CQ6" t="n">
-        <v>963.1796875</v>
+        <v>297.890625</v>
       </c>
       <c r="CR6" t="n">
-        <v>415.3515625</v>
+        <v>174.375</v>
       </c>
       <c r="CS6" t="n">
-        <v>374.6640625</v>
+        <v>7.265625</v>
       </c>
       <c r="CT6" t="n">
-        <v>311.2109375</v>
+        <v>263.7421875</v>
       </c>
       <c r="CU6" t="n">
-        <v>147.0078125</v>
+        <v>353.109375</v>
       </c>
       <c r="CV6" t="n">
-        <v>204.890625</v>
+        <v>386.7734375</v>
       </c>
       <c r="CW6" t="n">
-        <v>33.90625</v>
+        <v>114.3125</v>
       </c>
       <c r="CX6" t="n">
-        <v>35.1171875</v>
+        <v>113.828125</v>
       </c>
       <c r="CY6" t="n">
-        <v>35.6015625</v>
+        <v>271.734375</v>
       </c>
       <c r="CZ6" t="n">
-        <v>206.34375</v>
+        <v>402.515625</v>
       </c>
       <c r="DA6" t="n">
-        <v>105.8359375</v>
+        <v>0</v>
       </c>
       <c r="DB6" t="n">
-        <v>492.3671875</v>
+        <v>162.0234375</v>
       </c>
       <c r="DC6" t="n">
-        <v>37.0546875</v>
+        <v>277.546875</v>
       </c>
       <c r="DD6" t="n">
-        <v>0</v>
+        <v>120.3671875</v>
       </c>
       <c r="DE6" t="n">
-        <v>23.0078125</v>
+        <v>220.875</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>125.6953125</v>
       </c>
       <c r="DG6" t="n">
-        <v>186.2421875</v>
+        <v>201.984375</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
@@ -65082,67 +66698,1683 @@
         <v>0</v>
       </c>
       <c r="DJ6" t="n">
-        <v>79.4375</v>
+        <v>178.4921875</v>
       </c>
       <c r="DK6" t="n">
-        <v>60.0625</v>
+        <v>132.4765625</v>
       </c>
       <c r="DL6" t="n">
-        <v>0</v>
+        <v>68.5390625</v>
       </c>
       <c r="DM6" t="n">
-        <v>159.84375</v>
+        <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>192.78125</v>
+        <v>212.3984375</v>
       </c>
       <c r="DO6" t="n">
-        <v>133.6875</v>
+        <v>307.3359375</v>
       </c>
       <c r="DP6" t="n">
-        <v>161.0546875</v>
+        <v>95.421875</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0</v>
+        <v>104.8671875</v>
       </c>
       <c r="DR6" t="n">
-        <v>182.609375</v>
+        <v>95.1796875</v>
       </c>
       <c r="DS6" t="n">
-        <v>0</v>
+        <v>236.375</v>
       </c>
       <c r="DT6" t="n">
-        <v>101.9609375</v>
+        <v>7.5078125</v>
       </c>
       <c r="DU6" t="n">
-        <v>252.84375</v>
+        <v>0</v>
       </c>
       <c r="DV6" t="n">
-        <v>0</v>
+        <v>335.4296875</v>
       </c>
       <c r="DW6" t="n">
-        <v>48.1953125</v>
+        <v>226.203125</v>
       </c>
       <c r="DX6" t="n">
-        <v>375.6328125</v>
+        <v>194.71875</v>
       </c>
       <c r="DY6" t="n">
-        <v>127.875</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
         <v>0</v>
       </c>
       <c r="EA6" t="n">
-        <v>0</v>
+        <v>305.3984375</v>
       </c>
       <c r="EB6" t="n">
         <v>0</v>
       </c>
       <c r="EC6" t="n">
-        <v>53.5234375</v>
+        <v>189.1484375</v>
       </c>
       <c r="ED6" t="n">
-        <v>989.8203125</v>
+        <v>574.2265625</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>187.5234375</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>291.12890625</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>288.421875</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>544.359375</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>398.91796875</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>243.38671875</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>259.62890625</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>68.4140625</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>129.4453125</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>187.03125</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>297.28125</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>359.54296875</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>144.45703125</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>272.42578125</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>23.87109375</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>151.1015625</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>408.76171875</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>364.21875</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>484.8046875</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>278.82421875</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>601.453125</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>127.96875</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>265.78125</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>118.125</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>493.41796875</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>220.9921875</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>97.453125</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>307.6171875</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>254.70703125</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>13.53515625</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>173.25</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>193.4296875</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>106.55859375</v>
+      </c>
+      <c r="DK7" t="n">
+        <v>178.6640625</v>
+      </c>
+      <c r="DL7" t="n">
+        <v>57.33984375</v>
+      </c>
+      <c r="DM7" t="n">
+        <v>170.05078125</v>
+      </c>
+      <c r="DN7" t="n">
+        <v>327.796875</v>
+      </c>
+      <c r="DO7" t="n">
+        <v>63.73828125</v>
+      </c>
+      <c r="DP7" t="n">
+        <v>263.3203125</v>
+      </c>
+      <c r="DQ7" t="n">
+        <v>653.87109375</v>
+      </c>
+      <c r="DR7" t="n">
+        <v>111.234375</v>
+      </c>
+      <c r="DS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT7" t="n">
+        <v>425.7421875</v>
+      </c>
+      <c r="DU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW7" t="n">
+        <v>73.3359375</v>
+      </c>
+      <c r="DX7" t="n">
+        <v>228.62109375</v>
+      </c>
+      <c r="DY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA7" t="n">
+        <v>446.16796875</v>
+      </c>
+      <c r="EB7" t="n">
+        <v>564.046875</v>
+      </c>
+      <c r="EC7" t="n">
+        <v>60.5390625</v>
+      </c>
+      <c r="ED7" t="n">
+        <v>340.34765625</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>73.421875</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>104.923828125</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>344.537109375</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>233.908203125</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>30.509765625</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>310.802734375</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>136.177734375</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>103.68359375</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>187.02734375</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>312.787109375</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>164.455078125</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>109.140625</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>276.8203125</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>245.56640625</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>244.078125</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>780.35546875</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>343.544921875</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>548.431640625</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>404.068359375</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>646.41015625</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>981.521484375</v>
+      </c>
+      <c r="CW8" t="n">
+        <v>35.71875</v>
+      </c>
+      <c r="CX8" t="n">
+        <v>125.263671875</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>226.71484375</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>412.25390625</v>
+      </c>
+      <c r="DA8" t="n">
+        <v>356.443359375</v>
+      </c>
+      <c r="DB8" t="n">
+        <v>118.318359375</v>
+      </c>
+      <c r="DC8" t="n">
+        <v>370.333984375</v>
+      </c>
+      <c r="DD8" t="n">
+        <v>358.427734375</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>243.58203125</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>76.89453125</v>
+      </c>
+      <c r="DG8" t="n">
+        <v>23.31640625</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>97.978515625</v>
+      </c>
+      <c r="DI8" t="n">
+        <v>521.39453125</v>
+      </c>
+      <c r="DJ8" t="n">
+        <v>85.328125</v>
+      </c>
+      <c r="DK8" t="n">
+        <v>207.119140625</v>
+      </c>
+      <c r="DL8" t="n">
+        <v>83.591796875</v>
+      </c>
+      <c r="DM8" t="n">
+        <v>31.25390625</v>
+      </c>
+      <c r="DN8" t="n">
+        <v>191.98828125</v>
+      </c>
+      <c r="DO8" t="n">
+        <v>35.470703125</v>
+      </c>
+      <c r="DP8" t="n">
+        <v>119.0625</v>
+      </c>
+      <c r="DQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR8" t="n">
+        <v>151.556640625</v>
+      </c>
+      <c r="DS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT8" t="n">
+        <v>282.525390625</v>
+      </c>
+      <c r="DU8" t="n">
+        <v>214.064453125</v>
+      </c>
+      <c r="DV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW8" t="n">
+        <v>272.35546875</v>
+      </c>
+      <c r="DX8" t="n">
+        <v>266.154296875</v>
+      </c>
+      <c r="DY8" t="n">
+        <v>141.8828125</v>
+      </c>
+      <c r="DZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA8" t="n">
+        <v>395.38671875</v>
+      </c>
+      <c r="EB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED8" t="n">
+        <v>194.220703125</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>365.068359375</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>406.6552734375</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>296.5869140625</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>46.318359375</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>483.8525390625</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>82.4267578125</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>196.23046875</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>232.587890625</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>223.623046875</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>51.796875</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>254.00390625</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>130.986328125</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>275.1708984375</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>351.62109375</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>422.841796875</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>425.33203125</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>59.0185546875</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>514.482421875</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>396.6943359375</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>506.7626953125</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>484.3505859375</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>152.900390625</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>117.7880859375</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>65.4931640625</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>355.8544921875</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>352.3681640625</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>171.826171875</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>280.400390625</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>187.763671875</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>122.021484375</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>40.5908203125</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>55.0341796875</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>218.3935546875</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>167.5927734375</v>
+      </c>
+      <c r="DK9" t="n">
+        <v>214.16015625</v>
+      </c>
+      <c r="DL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM9" t="n">
+        <v>36.357421875</v>
+      </c>
+      <c r="DN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO9" t="n">
+        <v>177.802734375</v>
+      </c>
+      <c r="DP9" t="n">
+        <v>56.279296875</v>
+      </c>
+      <c r="DQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS9" t="n">
+        <v>494.560546875</v>
+      </c>
+      <c r="DT9" t="n">
+        <v>365.068359375</v>
+      </c>
+      <c r="DU9" t="n">
+        <v>367.3095703125</v>
+      </c>
+      <c r="DV9" t="n">
+        <v>38.349609375</v>
+      </c>
+      <c r="DW9" t="n">
+        <v>377.021484375</v>
+      </c>
+      <c r="DX9" t="n">
+        <v>129.4921875</v>
+      </c>
+      <c r="DY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ9" t="n">
+        <v>256.2451171875</v>
+      </c>
+      <c r="EA9" t="n">
+        <v>512.2412109375</v>
+      </c>
+      <c r="EB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC9" t="n">
+        <v>390.7177734375</v>
+      </c>
+      <c r="ED9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>359.7958984375</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>322.369140625</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>286.18994140625</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>376.7626953125</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>87.828125</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>291.67919921875</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>327.10986328125</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>106.791015625</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>225.30908203125</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>120.763671875</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>336.59130859375</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>372.7705078125</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>205.84716796875</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>208.84130859375</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>337.09033203125</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>596.83203125</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>226.80615234375</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>544.18505859375</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>324.8642578125</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>375.01611328125</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>209.0908203125</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>110.03466796875</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>172.662109375</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>135.734375</v>
+      </c>
+      <c r="DA10" t="n">
+        <v>226.556640625</v>
+      </c>
+      <c r="DB10" t="n">
+        <v>524.72314453125</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>384.49755859375</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>186.88427734375</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>154.1982421875</v>
+      </c>
+      <c r="DG10" t="n">
+        <v>58.3857421875</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>175.40673828125</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>161.68359375</v>
+      </c>
+      <c r="DK10" t="n">
+        <v>216.576171875</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>84.58447265625</v>
+      </c>
+      <c r="DM10" t="n">
+        <v>137.97998046875</v>
+      </c>
+      <c r="DN10" t="n">
+        <v>85.08349609375</v>
+      </c>
+      <c r="DO10" t="n">
+        <v>175.1572265625</v>
+      </c>
+      <c r="DP10" t="n">
+        <v>44.66259765625</v>
+      </c>
+      <c r="DQ10" t="n">
+        <v>305.40234375</v>
+      </c>
+      <c r="DR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS10" t="n">
+        <v>10.4794921875</v>
+      </c>
+      <c r="DT10" t="n">
+        <v>603.3193359375</v>
+      </c>
+      <c r="DU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW10" t="n">
+        <v>287.68701171875</v>
+      </c>
+      <c r="DX10" t="n">
+        <v>173.66015625</v>
+      </c>
+      <c r="DY10" t="n">
+        <v>87.828125</v>
+      </c>
+      <c r="DZ10" t="n">
+        <v>189.37939453125</v>
+      </c>
+      <c r="EA10" t="n">
+        <v>299.66357421875</v>
+      </c>
+      <c r="EB10" t="n">
+        <v>215.0791015625</v>
+      </c>
+      <c r="EC10" t="n">
+        <v>289.9326171875</v>
+      </c>
+      <c r="ED10" t="n">
+        <v>299.16455078125</v>
       </c>
     </row>
   </sheetData>
@@ -65174,7 +68406,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>322520</v>
       </c>
     </row>
     <row r="3">
@@ -65182,7 +68414,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>173868</v>
+        <v>817950</v>
       </c>
     </row>
     <row r="4">
@@ -65190,7 +68422,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>753376</v>
+        <v>817950</v>
       </c>
     </row>
     <row r="5">
@@ -65198,7 +68430,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3061490</v>
+        <v>2375290</v>
       </c>
     </row>
   </sheetData>
@@ -65244,7 +68476,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -65263,7 +68495,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -65282,7 +68514,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -65301,7 +68533,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -65320,7 +68552,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -65339,7 +68571,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -65358,7 +68590,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -65377,7 +68609,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -65396,7 +68628,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -65415,7 +68647,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -65434,7 +68666,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -65453,7 +68685,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -65472,7 +68704,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -65491,7 +68723,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -65510,7 +68742,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -65529,7 +68761,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -65548,7 +68780,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -65567,7 +68799,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -65586,7 +68818,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -65605,7 +68837,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -65624,7 +68856,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -65643,7 +68875,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -65662,7 +68894,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -65681,7 +68913,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -65700,7 +68932,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -65719,7 +68951,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -65738,7 +68970,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -65757,7 +68989,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -65779,7 +69011,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -65798,7 +69030,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -65817,7 +69049,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -65836,7 +69068,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -65855,7 +69087,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -65874,7 +69106,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -65893,7 +69125,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -65912,7 +69144,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -65931,7 +69163,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -65950,7 +69182,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -65969,7 +69201,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -65988,7 +69220,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -66007,7 +69239,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -66026,7 +69258,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -66045,7 +69277,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -66064,7 +69296,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -66083,7 +69315,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -66102,7 +69334,7 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -66121,7 +69353,7 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -66140,7 +69372,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -66159,7 +69391,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -66178,7 +69410,7 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -66197,7 +69429,7 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
@@ -66216,7 +69448,7 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -66235,7 +69467,7 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
@@ -66254,7 +69486,7 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -66273,7 +69505,7 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -66292,7 +69524,7 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -66314,7 +69546,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -66333,7 +69565,7 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -66352,7 +69584,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -66371,7 +69603,7 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -66390,7 +69622,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -66409,7 +69641,7 @@
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -66428,7 +69660,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -66447,7 +69679,7 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -66466,7 +69698,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -66485,7 +69717,7 @@
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -66504,7 +69736,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -66523,7 +69755,7 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -66542,7 +69774,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -66561,7 +69793,7 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -66580,7 +69812,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -66599,7 +69831,7 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -66618,7 +69850,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -66637,7 +69869,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -66656,7 +69888,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -66675,7 +69907,7 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -66694,7 +69926,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -66707,7 +69939,7 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -66726,7 +69958,7 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
@@ -66745,7 +69977,7 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -66764,7 +69996,7 @@
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -66783,7 +70015,7 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -66802,7 +70034,7 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
         <v>0</v>
@@ -66821,7 +70053,7 @@
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -66840,7 +70072,7 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -66859,7 +70091,7 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -66878,7 +70110,7 @@
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -66897,7 +70129,7 @@
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -66916,7 +70148,7 @@
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -66935,7 +70167,7 @@
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -66954,7 +70186,7 @@
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -66973,7 +70205,7 @@
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -66992,7 +70224,7 @@
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -67011,7 +70243,7 @@
         <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -67030,7 +70262,7 @@
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -67049,7 +70281,7 @@
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -67068,7 +70300,7 @@
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -67087,7 +70319,7 @@
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -67106,7 +70338,7 @@
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -67125,7 +70357,7 @@
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -67144,7 +70376,7 @@
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -67163,7 +70395,7 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
@@ -67182,7 +70414,7 @@
         <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -67201,7 +70433,7 @@
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
@@ -67220,7 +70452,7 @@
         <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -67236,7 +70468,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -67255,7 +70487,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -67274,7 +70506,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -67293,7 +70525,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -67312,7 +70544,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -67331,7 +70563,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
@@ -67350,7 +70582,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -67369,7 +70601,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -67388,7 +70620,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -67407,7 +70639,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
@@ -67426,7 +70658,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -67445,7 +70677,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -67464,7 +70696,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -67483,7 +70715,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -67502,7 +70734,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -67521,7 +70753,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -67540,7 +70772,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -67559,7 +70791,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -67578,7 +70810,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -67597,7 +70829,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C126" t="n">
         <v>0</v>
@@ -67616,7 +70848,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -67635,7 +70867,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -67654,7 +70886,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -67673,7 +70905,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" t="n">
         <v>0</v>
@@ -67692,7 +70924,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -67711,7 +70943,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
@@ -67730,7 +70962,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -67749,7 +70981,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
